--- a/Post/Index/data/Sample - Humidity.xlsx
+++ b/Post/Index/data/Sample - Humidity.xlsx
@@ -453,67 +453,79 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45605.24791666667</v>
+        <v>45696.42708333334</v>
       </c>
       <c r="B2" t="n">
-        <v>71.88</v>
+        <v>96.61</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45614.86527777778</v>
+        <v>45700.83333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>97.37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45616.73611111111</v>
-      </c>
-      <c r="B4" t="inlineStr"/>
+        <v>45701.73194444444</v>
+      </c>
+      <c r="B4" t="n">
+        <v>75.16</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45628.55763888889</v>
+        <v>45702.55833333333</v>
       </c>
       <c r="B5" t="n">
-        <v>100</v>
+        <v>93.03</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45635.53541666667</v>
-      </c>
-      <c r="B6" t="inlineStr"/>
+        <v>45702.59236111111</v>
+      </c>
+      <c r="B6" t="n">
+        <v>87.34999999999999</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45647.38958333333</v>
-      </c>
-      <c r="B7" t="inlineStr"/>
+        <v>45704.50138888889</v>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45666.65138888889</v>
-      </c>
-      <c r="B8" t="inlineStr"/>
+        <v>45707.08888888889</v>
+      </c>
+      <c r="B8" t="n">
+        <v>88.95</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45682.08472222222</v>
-      </c>
-      <c r="B9" t="inlineStr"/>
+        <v>45707.70208333333</v>
+      </c>
+      <c r="B9" t="n">
+        <v>76.01000000000001</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45685.61111111111</v>
-      </c>
-      <c r="B10" t="inlineStr"/>
+        <v>45710.84583333333</v>
+      </c>
+      <c r="B10" t="n">
+        <v>97.15000000000001</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45696.00972222222</v>
+        <v>45711.05902777778</v>
       </c>
       <c r="B11" t="n">
         <v>100</v>

--- a/Post/Index/data/Sample - Humidity.xlsx
+++ b/Post/Index/data/Sample - Humidity.xlsx
@@ -453,15 +453,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45696.42708333334</v>
+        <v>45691.80347222222</v>
       </c>
       <c r="B2" t="n">
-        <v>96.61</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45700.83333333334</v>
+        <v>45697.61388888889</v>
       </c>
       <c r="B3" t="n">
         <v>100</v>
@@ -469,63 +469,63 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45701.73194444444</v>
+        <v>45711.03055555555</v>
       </c>
       <c r="B4" t="n">
-        <v>75.16</v>
+        <v>99.75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45702.55833333333</v>
+        <v>45711.18125</v>
       </c>
       <c r="B5" t="n">
-        <v>93.03</v>
+        <v>75.2</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45702.59236111111</v>
+        <v>45712.51666666667</v>
       </c>
       <c r="B6" t="n">
-        <v>87.34999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45704.50138888889</v>
+        <v>45714.24652777778</v>
       </c>
       <c r="B7" t="n">
-        <v>100</v>
+        <v>78.64</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45707.08888888889</v>
+        <v>45718.17916666667</v>
       </c>
       <c r="B8" t="n">
-        <v>88.95</v>
+        <v>79.22</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45707.70208333333</v>
+        <v>45721.19027777778</v>
       </c>
       <c r="B9" t="n">
-        <v>76.01000000000001</v>
+        <v>72.73999999999999</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45710.84583333333</v>
+        <v>45721.37777777778</v>
       </c>
       <c r="B10" t="n">
-        <v>97.15000000000001</v>
+        <v>82.53</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45711.05902777778</v>
+        <v>45721.63333333333</v>
       </c>
       <c r="B11" t="n">
         <v>100</v>

--- a/Post/Index/data/Sample - Humidity.xlsx
+++ b/Post/Index/data/Sample - Humidity.xlsx
@@ -453,82 +453,82 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45691.80347222222</v>
+        <v>45689.55416666667</v>
       </c>
       <c r="B2" t="n">
-        <v>100</v>
+        <v>99.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45697.61388888889</v>
+        <v>45692.07638888889</v>
       </c>
       <c r="B3" t="n">
-        <v>100</v>
+        <v>87.98</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45711.03055555555</v>
+        <v>45692.57916666667</v>
       </c>
       <c r="B4" t="n">
-        <v>99.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45711.18125</v>
+        <v>45693.60833333333</v>
       </c>
       <c r="B5" t="n">
-        <v>75.2</v>
+        <v>99.28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45712.51666666667</v>
+        <v>45695.93611111111</v>
       </c>
       <c r="B6" t="n">
-        <v>100</v>
+        <v>95.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45714.24652777778</v>
+        <v>45699.20416666667</v>
       </c>
       <c r="B7" t="n">
-        <v>78.64</v>
+        <v>62.42</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45718.17916666667</v>
+        <v>45703.20277777778</v>
       </c>
       <c r="B8" t="n">
-        <v>79.22</v>
+        <v>62.49</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45721.19027777778</v>
+        <v>45707.81736111111</v>
       </c>
       <c r="B9" t="n">
-        <v>72.73999999999999</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45721.37777777778</v>
+        <v>45711.36875</v>
       </c>
       <c r="B10" t="n">
-        <v>82.53</v>
+        <v>69.79000000000001</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45721.63333333333</v>
+        <v>45721.63125</v>
       </c>
       <c r="B11" t="n">
-        <v>100</v>
+        <v>99.41</v>
       </c>
     </row>
   </sheetData>
